--- a/Manuscript/Pipeline_results_summary.xlsx
+++ b/Manuscript/Pipeline_results_summary.xlsx
@@ -624,7 +624,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -842,6 +842,9 @@
       <c r="G14" s="1">
         <v>2184</v>
       </c>
+      <c r="K14" s="1">
+        <v>1293</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="C16" s="1" t="s">

--- a/Manuscript/Pipeline_results_summary.xlsx
+++ b/Manuscript/Pipeline_results_summary.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Blastp</t>
   </si>
@@ -69,9 +70,6 @@
     <t>664 336 sequences in cluster_genes.89k.fasta</t>
   </si>
   <si>
-    <t>Cdhit 90</t>
-  </si>
-  <si>
     <t>Discovery rate in %</t>
   </si>
   <si>
@@ -87,14 +85,77 @@
     <t>How many targets are discovered within a certain threshold?</t>
   </si>
   <si>
-    <t xml:space="preserve">609 targets filtered </t>
+    <t>Number ofclusters with &gt;1 copy per nucl record</t>
+  </si>
+  <si>
+    <t>At least 2 copies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% </t>
+  </si>
+  <si>
+    <t>Empty gb files (0 copies)</t>
+  </si>
+  <si>
+    <t>609 targets filtered no pumps</t>
+  </si>
+  <si>
+    <t>Cdhit 90 and Phylogenetic tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92 targets 5kb </t>
+  </si>
+  <si>
+    <t>609 targets 5kb</t>
+  </si>
+  <si>
+    <t>12 targets 10kb</t>
+  </si>
+  <si>
+    <t>Full genomes*</t>
+  </si>
+  <si>
+    <t>*Includes full genomes with missing sequence in gb file</t>
+  </si>
+  <si>
+    <t>Total number of clusters</t>
+  </si>
+  <si>
+    <t>Second copy</t>
+  </si>
+  <si>
+    <t>Number of targets</t>
+  </si>
+  <si>
+    <t>12 targets 10kb cutoff</t>
+  </si>
+  <si>
+    <t>92 targets 5kb cutoff</t>
+  </si>
+  <si>
+    <t>609 targets 5kb cutoff</t>
+  </si>
+  <si>
+    <t>Discovery rate</t>
+  </si>
+  <si>
+    <t>Pipeline result summary</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>How many clusters are discovered within a certain threshold?</t>
+  </si>
+  <si>
+    <t>&gt;50kb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +179,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,34 +219,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -217,17 +260,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,19 +313,38 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -273,6 +364,22 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -292,6 +399,22 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,24 +744,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -647,16 +770,42 @@
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="1">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H3" s="1">
+        <v>92</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H2/H3</f>
+        <v>0.13043478260869565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="H4" s="1">
+        <v>609</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H2/H4</f>
+        <v>1.9704433497536946E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
@@ -679,259 +828,602 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
+      <c r="F10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="3" t="s">
+      <c r="I11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="M11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>29987</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4404</v>
+      </c>
+      <c r="F12" s="7">
+        <v>806</v>
+      </c>
+      <c r="G12" s="7">
+        <v>136</v>
+      </c>
+      <c r="H12" s="4">
+        <f>G12/D12*100*I2</f>
+        <v>0.4535298629406076</v>
+      </c>
+      <c r="I12" s="6">
+        <v>252</v>
+      </c>
+      <c r="J12" s="4">
+        <f>I12/D12*I2*100</f>
+        <v>0.84036415780171414</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="7">
+        <v>152</v>
+      </c>
+      <c r="M12" s="7">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>29987</v>
+      </c>
+      <c r="E13" s="7">
+        <v>31944</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5492</v>
+      </c>
+      <c r="G13" s="7">
+        <v>501</v>
+      </c>
+      <c r="H13" s="4">
+        <f>G13/D13*100*I3</f>
+        <v>0.21792051918150041</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1202</v>
+      </c>
+      <c r="J13" s="4">
+        <f>I13/D13*I3*100</f>
+        <v>0.52283525759713267</v>
+      </c>
+      <c r="K13" s="7">
+        <v>226</v>
+      </c>
+      <c r="L13" s="7">
+        <v>562</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>29987</v>
+      </c>
+      <c r="E14" s="7">
+        <v>133958</v>
+      </c>
+      <c r="F14" s="7">
+        <v>28543</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3238</v>
+      </c>
+      <c r="H14" s="4">
+        <f>G14/D14*100*I4</f>
+        <v>0.21276871866150207</v>
+      </c>
+      <c r="I14" s="6">
+        <v>5475</v>
+      </c>
+      <c r="J14" s="4">
+        <f>I14/D14*I4*100</f>
+        <v>0.35976180811356517</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1974</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7">
+        <v>29987</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>1954</v>
+      </c>
+      <c r="H15" s="4">
+        <f>G15/D15*100*I4</f>
+        <v>0.12839718229295091</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3577</v>
+      </c>
+      <c r="J15" s="4">
+        <f>I15/D15*I4*100</f>
+        <v>0.23504438130086255</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1293</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="7">
+        <v>29987</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4404</v>
+      </c>
+      <c r="F20" s="7">
+        <v>806</v>
+      </c>
+      <c r="G20" s="6">
+        <v>252</v>
+      </c>
+      <c r="H20" s="7">
+        <f>G20/D20*100</f>
+        <v>0.84036415780171414</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7">
+        <v>29987</v>
+      </c>
+      <c r="E21" s="7">
+        <v>31944</v>
+      </c>
+      <c r="F21" s="7">
+        <v>5492</v>
+      </c>
+      <c r="G21" s="7">
+        <v>501</v>
+      </c>
+      <c r="H21" s="7">
+        <f>G21/D21*100*I3</f>
+        <v>0.21792051918150041</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="7">
+        <v>29987</v>
+      </c>
+      <c r="E22" s="7">
+        <v>133958</v>
+      </c>
+      <c r="F22" s="7">
+        <v>28543</v>
+      </c>
+      <c r="G22" s="7">
+        <v>3238</v>
+      </c>
+      <c r="H22" s="7">
+        <f>G22/D22*100*I4</f>
+        <v>0.21276871866150207</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
+        <v>1954</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="E27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="C11" s="3" t="s">
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
-        <v>29987</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4404</v>
-      </c>
-      <c r="F11" s="3">
-        <v>806</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="D28" s="7">
+        <v>12</v>
+      </c>
+      <c r="E28" s="7">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7">
+        <v>50</v>
+      </c>
+      <c r="E29" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7">
+        <v>237</v>
+      </c>
+      <c r="E30" s="7">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="3:9" ht="45">
+      <c r="C34" s="16"/>
+      <c r="D34" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="7">
+        <v>252</v>
+      </c>
+      <c r="E35" s="7">
+        <v>43</v>
+      </c>
+      <c r="F35" s="4">
+        <f>E35/D35</f>
+        <v>0.17063492063492064</v>
+      </c>
+      <c r="G35" s="7">
+        <v>29</v>
+      </c>
+      <c r="H35" s="7">
+        <v>14</v>
+      </c>
+      <c r="I35" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="7">
+        <v>501</v>
+      </c>
+      <c r="E36" s="7">
+        <v>181</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" ref="F36:F37" si="0">E36/D36</f>
+        <v>0.36127744510978044</v>
+      </c>
+      <c r="G36" s="7">
+        <v>75</v>
+      </c>
+      <c r="H36" s="7">
+        <v>65</v>
+      </c>
+      <c r="I36" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3238</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1441</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44502779493514516</v>
+      </c>
+      <c r="G37" s="7">
+        <v>535</v>
+      </c>
+      <c r="H37" s="7">
+        <v>415</v>
+      </c>
+      <c r="I37" s="6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="G38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="12"/>
+      <c r="D43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="7">
         <v>136</v>
       </c>
-      <c r="H11" s="5">
-        <f>G11/D11*100*D17</f>
-        <v>0.4535298629406076</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="E44" s="7">
         <v>252</v>
       </c>
-      <c r="J11" s="5">
-        <f>I11/D11*D17*100</f>
-        <v>0.84036415780171414</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>152</v>
-      </c>
-      <c r="M11" s="3">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="C12" s="3" t="s">
+      <c r="F44" s="1">
+        <v>587</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="3">
-        <v>29987</v>
-      </c>
-      <c r="E12" s="3">
-        <v>31944</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5492</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="D45" s="7">
         <v>501</v>
       </c>
-      <c r="H12" s="5">
-        <f>G12/D12*100*D18</f>
-        <v>0.21792051918150041</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="E45" s="7">
         <v>1202</v>
       </c>
-      <c r="J12" s="5">
-        <f>I12/D12*D18*100</f>
-        <v>0.52283525759713267</v>
-      </c>
-      <c r="K12" s="3">
-        <v>226</v>
-      </c>
-      <c r="L12" s="3">
-        <v>562</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="3">
-        <v>29987</v>
-      </c>
-      <c r="E13" s="3">
-        <v>133958</v>
-      </c>
-      <c r="F13" s="3">
-        <v>28543</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="D46" s="7">
         <v>3238</v>
       </c>
-      <c r="H13" s="5">
-        <f>G13/D13*100*D19</f>
-        <v>0.21276871866150207</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="E46" s="7">
         <v>5475</v>
       </c>
-      <c r="J13" s="5">
-        <f>I13/D13*D19*100</f>
-        <v>0.35976180811356517</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1974</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2184</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="1">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="1">
-        <v>92</v>
-      </c>
-      <c r="D18" s="1">
-        <f>C17/C18</f>
-        <v>0.13043478260869565</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="1">
-        <v>609</v>
-      </c>
-      <c r="D19" s="1">
-        <f>C17/C19</f>
-        <v>1.9704433497536946E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="9"/>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3">
-        <v>50</v>
-      </c>
-      <c r="E24" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>237</v>
-      </c>
-      <c r="E25" s="3">
-        <v>339</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="G9:J9"/>
+  <mergeCells count="11">
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G10:J10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -941,4 +1433,6339 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J501"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H2" sqref="H1:H120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>26</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>27</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>28</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>29</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>31</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>33</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>34</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>36</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>37</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>38</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>39</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>42</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>41</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>43</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>44</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>45</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>46</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>47</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>48</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>49</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>49</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>51</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>52</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>51</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>53</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>52</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>54</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>53</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>55</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>56</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>57</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>56</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>58</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>59</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>60</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>61</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>62</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>61</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>63</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>62</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>64</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>21</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>65</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>64</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>66</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>31</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>65</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>67</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>31</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>66</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>68</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>41</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>67</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>69</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>41</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>68</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>70</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>41</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>69</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>71</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>41</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>70</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>41</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>71</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>73</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>72</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>74</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>61</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>73</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>75</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>61</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>74</v>
+      </c>
+      <c r="H76">
+        <v>76</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>91</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>75</v>
+      </c>
+      <c r="H77">
+        <v>77</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>76</v>
+      </c>
+      <c r="H78">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>77</v>
+      </c>
+      <c r="H79">
+        <v>79</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>78</v>
+      </c>
+      <c r="H80">
+        <v>80</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10">
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>79</v>
+      </c>
+      <c r="H81">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10">
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>80</v>
+      </c>
+      <c r="F82">
+        <f>1944-77</f>
+        <v>1867</v>
+      </c>
+      <c r="H82">
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10">
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>81</v>
+      </c>
+      <c r="H83">
+        <v>83</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10">
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>82</v>
+      </c>
+      <c r="H84">
+        <v>84</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10">
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>83</v>
+      </c>
+      <c r="H85">
+        <v>85</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10">
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>84</v>
+      </c>
+      <c r="H86">
+        <v>86</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10">
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>85</v>
+      </c>
+      <c r="H87">
+        <v>87</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10">
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>86</v>
+      </c>
+      <c r="H88">
+        <v>88</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10">
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>87</v>
+      </c>
+      <c r="H89">
+        <v>89</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10">
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>88</v>
+      </c>
+      <c r="H90">
+        <v>90</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10">
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>89</v>
+      </c>
+      <c r="H91">
+        <v>91</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10">
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>90</v>
+      </c>
+      <c r="H92">
+        <v>92</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10">
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>91</v>
+      </c>
+      <c r="H93">
+        <v>93</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10">
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>92</v>
+      </c>
+      <c r="H94">
+        <v>94</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10">
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>93</v>
+      </c>
+      <c r="H95">
+        <v>95</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10">
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>94</v>
+      </c>
+      <c r="H96">
+        <v>96</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10">
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>95</v>
+      </c>
+      <c r="H97">
+        <v>97</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10">
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>96</v>
+      </c>
+      <c r="H98">
+        <v>98</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>97</v>
+      </c>
+      <c r="H99">
+        <v>99</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10">
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>98</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10">
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>99</v>
+      </c>
+      <c r="H101">
+        <v>101</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="4:10">
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>102</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="4:10">
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>101</v>
+      </c>
+      <c r="H103">
+        <v>103</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="4:10">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>102</v>
+      </c>
+      <c r="H104">
+        <v>104</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="4:10">
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>103</v>
+      </c>
+      <c r="H105">
+        <v>105</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="4:10">
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>104</v>
+      </c>
+      <c r="H106">
+        <v>106</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="4:10">
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>105</v>
+      </c>
+      <c r="H107">
+        <v>107</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="4:10">
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>106</v>
+      </c>
+      <c r="H108">
+        <v>108</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="4:10">
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>107</v>
+      </c>
+      <c r="H109">
+        <v>109</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="4:10">
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>108</v>
+      </c>
+      <c r="H110">
+        <v>110</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="4:10">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>109</v>
+      </c>
+      <c r="H111">
+        <v>111</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="4:10">
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>110</v>
+      </c>
+      <c r="H112">
+        <v>112</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="4:10">
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>111</v>
+      </c>
+      <c r="H113">
+        <v>113</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="4:10">
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>112</v>
+      </c>
+      <c r="H114">
+        <v>114</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:10">
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>113</v>
+      </c>
+      <c r="H115">
+        <v>115</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="4:10">
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>114</v>
+      </c>
+      <c r="H116">
+        <v>116</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="4:10">
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>115</v>
+      </c>
+      <c r="H117">
+        <v>117</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="4:10">
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>116</v>
+      </c>
+      <c r="H118">
+        <v>118</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10">
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>117</v>
+      </c>
+      <c r="H119">
+        <v>119</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10">
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>118</v>
+      </c>
+      <c r="H120">
+        <v>120</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="4:10">
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10">
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="4:10">
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="4:10">
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="4:10">
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="4:10">
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="4:10">
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="4:10">
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5">
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5">
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5">
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5">
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5">
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5">
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5">
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5">
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5">
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5">
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5">
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5">
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5">
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5">
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5">
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5">
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5">
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5">
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5">
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5">
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5">
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5">
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5">
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5">
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5">
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5">
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5">
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5">
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5">
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5">
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5">
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5">
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5">
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5">
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5">
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5">
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5">
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5">
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5">
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5">
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="4:5">
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5">
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5">
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5">
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="4:5">
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5">
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="4:5">
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="4:5">
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5">
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5">
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5">
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5">
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5">
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5">
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5">
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5">
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5">
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5">
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="4:5">
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="4:5">
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="4:5">
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5">
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5">
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="4:5">
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="4:5">
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5">
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5">
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5">
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5">
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5">
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5">
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5">
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5">
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5">
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="4:5">
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="4:5">
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="4:5">
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="4:5">
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="4:5">
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="4:5">
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="4:5">
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="4:5">
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="4:5">
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="4:5">
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="4:5">
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="4:5">
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="4:5">
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="4:5">
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="4:5">
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="4:5">
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="4:5">
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="4:5">
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="4:5">
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="4:5">
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="4:5">
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="4:5">
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="4:5">
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5">
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5">
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="4:5">
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="4:5">
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="4:5">
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="4:5">
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="4:5">
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="4:5">
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="4:5">
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="4:5">
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="4:5">
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="4:5">
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="4:5">
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="4:5">
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="4:5">
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="4:5">
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="4:5">
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="4:5">
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="4:5">
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="4:5">
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="4:5">
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="4:5">
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="4:5">
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="4:5">
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="4:5">
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="4:5">
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="4:5">
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="4:5">
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="4:5">
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="4:5">
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="4:5">
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="4:5">
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="4:5">
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="4:5">
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="4:5">
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="4:5">
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="4:5">
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="4:5">
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="4:5">
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="4:5">
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="4:5">
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="4:5">
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="4:5">
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="4:5">
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="4:5">
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="4:5">
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="4:5">
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="4:5">
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="4:5">
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="4:5">
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="4:5">
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="4:5">
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="4:5">
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="4:5">
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="4:5">
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="4:5">
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="4:5">
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="4:5">
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="4:5">
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="4:5">
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="4:5">
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="4:5">
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="4:5">
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="4:5">
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="4:5">
+      <c r="D305">
+        <v>1</v>
+      </c>
+      <c r="E305">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="4:5">
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="4:5">
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="4:5">
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="4:5">
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="4:5">
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="4:5">
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="4:5">
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="4:5">
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="4:5">
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="4:5">
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="4:5">
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="4:5">
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="4:5">
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="4:5">
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="4:5">
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="3:5">
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>11</v>
+      </c>
+      <c r="E321">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="3:5">
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>11</v>
+      </c>
+      <c r="E322">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="3:5">
+      <c r="C323">
+        <v>3</v>
+      </c>
+      <c r="D323">
+        <v>12</v>
+      </c>
+      <c r="E323">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="3:5">
+      <c r="C324">
+        <v>4</v>
+      </c>
+      <c r="D324">
+        <v>14</v>
+      </c>
+      <c r="E324">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="3:5">
+      <c r="C325">
+        <v>5</v>
+      </c>
+      <c r="D325">
+        <v>19</v>
+      </c>
+      <c r="E325">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="3:5">
+      <c r="C326">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+      <c r="E326">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="3:5">
+      <c r="C327">
+        <v>7</v>
+      </c>
+      <c r="D327">
+        <v>2</v>
+      </c>
+      <c r="E327">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="3:5">
+      <c r="C328">
+        <v>8</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+      <c r="E328">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="3:5">
+      <c r="C329">
+        <v>9</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="3:5">
+      <c r="C330">
+        <v>10</v>
+      </c>
+      <c r="D330">
+        <v>2</v>
+      </c>
+      <c r="E330">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="3:5">
+      <c r="C331">
+        <v>11</v>
+      </c>
+      <c r="D331">
+        <v>2</v>
+      </c>
+      <c r="E331">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="3:5">
+      <c r="C332">
+        <v>12</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+      <c r="E332">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="3:5">
+      <c r="C333">
+        <v>13</v>
+      </c>
+      <c r="D333">
+        <v>2</v>
+      </c>
+      <c r="E333">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="3:5">
+      <c r="C334">
+        <v>14</v>
+      </c>
+      <c r="D334">
+        <v>2</v>
+      </c>
+      <c r="E334">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="3:5">
+      <c r="C335">
+        <v>15</v>
+      </c>
+      <c r="D335">
+        <v>2</v>
+      </c>
+      <c r="E335">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="3:5">
+      <c r="C336">
+        <v>16</v>
+      </c>
+      <c r="D336">
+        <v>2</v>
+      </c>
+      <c r="E336">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="3:5">
+      <c r="C337">
+        <v>17</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+      <c r="E337">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="3:5">
+      <c r="C338">
+        <v>18</v>
+      </c>
+      <c r="D338">
+        <v>2</v>
+      </c>
+      <c r="E338">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="3:5">
+      <c r="C339">
+        <v>19</v>
+      </c>
+      <c r="D339">
+        <v>2</v>
+      </c>
+      <c r="E339">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="3:5">
+      <c r="C340">
+        <v>20</v>
+      </c>
+      <c r="D340">
+        <v>2</v>
+      </c>
+      <c r="E340">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="3:5">
+      <c r="C341">
+        <v>21</v>
+      </c>
+      <c r="D341">
+        <v>2</v>
+      </c>
+      <c r="E341">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="3:5">
+      <c r="C342">
+        <v>22</v>
+      </c>
+      <c r="D342">
+        <v>2</v>
+      </c>
+      <c r="E342">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="3:5">
+      <c r="C343">
+        <v>23</v>
+      </c>
+      <c r="D343">
+        <v>2</v>
+      </c>
+      <c r="E343">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="3:5">
+      <c r="C344">
+        <v>24</v>
+      </c>
+      <c r="D344">
+        <v>2</v>
+      </c>
+      <c r="E344">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="3:5">
+      <c r="C345">
+        <v>25</v>
+      </c>
+      <c r="D345">
+        <v>2</v>
+      </c>
+      <c r="E345">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="3:5">
+      <c r="C346">
+        <v>26</v>
+      </c>
+      <c r="D346">
+        <v>2</v>
+      </c>
+      <c r="E346">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="3:5">
+      <c r="C347">
+        <v>27</v>
+      </c>
+      <c r="D347">
+        <v>2</v>
+      </c>
+      <c r="E347">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="3:5">
+      <c r="C348">
+        <v>28</v>
+      </c>
+      <c r="D348">
+        <v>2</v>
+      </c>
+      <c r="E348">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="3:5">
+      <c r="C349">
+        <v>29</v>
+      </c>
+      <c r="D349">
+        <v>2</v>
+      </c>
+      <c r="E349">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="3:5">
+      <c r="C350">
+        <v>30</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+      <c r="E350">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="3:5">
+      <c r="C351">
+        <v>31</v>
+      </c>
+      <c r="D351">
+        <v>2</v>
+      </c>
+      <c r="E351">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="3:5">
+      <c r="C352">
+        <v>32</v>
+      </c>
+      <c r="D352">
+        <v>2</v>
+      </c>
+      <c r="E352">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="3:5">
+      <c r="C353">
+        <v>33</v>
+      </c>
+      <c r="D353">
+        <v>2</v>
+      </c>
+      <c r="E353">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="3:5">
+      <c r="C354">
+        <v>34</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
+      </c>
+      <c r="E354">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="3:5">
+      <c r="C355">
+        <v>35</v>
+      </c>
+      <c r="D355">
+        <v>2</v>
+      </c>
+      <c r="E355">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="3:5">
+      <c r="C356">
+        <v>36</v>
+      </c>
+      <c r="D356">
+        <v>2</v>
+      </c>
+      <c r="E356">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="3:5">
+      <c r="C357">
+        <v>37</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+      <c r="E357">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="3:5">
+      <c r="C358">
+        <v>38</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
+      </c>
+      <c r="E358">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="3:5">
+      <c r="C359">
+        <v>39</v>
+      </c>
+      <c r="D359">
+        <v>2</v>
+      </c>
+      <c r="E359">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="3:5">
+      <c r="C360">
+        <v>40</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+      <c r="E360">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="3:5">
+      <c r="C361">
+        <v>41</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
+      </c>
+      <c r="E361">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="3:5">
+      <c r="C362">
+        <v>42</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+      <c r="E362">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="3:5">
+      <c r="C363">
+        <v>43</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+      <c r="E363">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="3:5">
+      <c r="C364">
+        <v>44</v>
+      </c>
+      <c r="D364">
+        <v>2</v>
+      </c>
+      <c r="E364">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="3:5">
+      <c r="C365">
+        <v>45</v>
+      </c>
+      <c r="D365">
+        <v>2</v>
+      </c>
+      <c r="E365">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="3:5">
+      <c r="C366">
+        <v>46</v>
+      </c>
+      <c r="D366">
+        <v>2</v>
+      </c>
+      <c r="E366">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="3:5">
+      <c r="C367">
+        <v>47</v>
+      </c>
+      <c r="D367">
+        <v>2</v>
+      </c>
+      <c r="E367">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="3:5">
+      <c r="C368">
+        <v>48</v>
+      </c>
+      <c r="D368">
+        <v>2</v>
+      </c>
+      <c r="E368">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="3:5">
+      <c r="C369">
+        <v>49</v>
+      </c>
+      <c r="D369">
+        <v>2</v>
+      </c>
+      <c r="E369">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="3:5">
+      <c r="C370">
+        <v>50</v>
+      </c>
+      <c r="D370">
+        <v>2</v>
+      </c>
+      <c r="E370">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="3:5">
+      <c r="C371">
+        <v>51</v>
+      </c>
+      <c r="D371">
+        <v>2</v>
+      </c>
+      <c r="E371">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="3:5">
+      <c r="C372">
+        <v>52</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+      <c r="E372">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="3:5">
+      <c r="C373">
+        <v>53</v>
+      </c>
+      <c r="D373">
+        <v>2</v>
+      </c>
+      <c r="E373">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="3:5">
+      <c r="C374">
+        <v>54</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+      <c r="E374">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="3:5">
+      <c r="C375">
+        <v>55</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+      <c r="E375">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="3:5">
+      <c r="C376">
+        <v>56</v>
+      </c>
+      <c r="D376">
+        <v>2</v>
+      </c>
+      <c r="E376">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="3:5">
+      <c r="C377">
+        <v>57</v>
+      </c>
+      <c r="D377">
+        <v>2</v>
+      </c>
+      <c r="E377">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="3:5">
+      <c r="C378">
+        <v>58</v>
+      </c>
+      <c r="D378">
+        <v>2</v>
+      </c>
+      <c r="E378">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="3:5">
+      <c r="C379">
+        <v>59</v>
+      </c>
+      <c r="D379">
+        <v>2</v>
+      </c>
+      <c r="E379">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="3:5">
+      <c r="C380">
+        <v>60</v>
+      </c>
+      <c r="D380">
+        <v>2</v>
+      </c>
+      <c r="E380">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="3:5">
+      <c r="C381">
+        <v>61</v>
+      </c>
+      <c r="D381">
+        <v>2</v>
+      </c>
+      <c r="E381">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="3:5">
+      <c r="C382">
+        <v>62</v>
+      </c>
+      <c r="D382">
+        <v>2</v>
+      </c>
+      <c r="E382">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="3:5">
+      <c r="C383">
+        <v>63</v>
+      </c>
+      <c r="D383">
+        <v>2</v>
+      </c>
+      <c r="E383">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="3:5">
+      <c r="C384">
+        <v>64</v>
+      </c>
+      <c r="D384">
+        <v>2</v>
+      </c>
+      <c r="E384">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="3:5">
+      <c r="C385">
+        <v>65</v>
+      </c>
+      <c r="D385">
+        <v>2</v>
+      </c>
+      <c r="E385">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="3:5">
+      <c r="C386">
+        <v>66</v>
+      </c>
+      <c r="D386">
+        <v>2</v>
+      </c>
+      <c r="E386">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="3:5">
+      <c r="C387">
+        <v>67</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+      <c r="E387">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="3:5">
+      <c r="C388">
+        <v>68</v>
+      </c>
+      <c r="D388">
+        <v>2</v>
+      </c>
+      <c r="E388">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="3:5">
+      <c r="C389">
+        <v>69</v>
+      </c>
+      <c r="D389">
+        <v>2</v>
+      </c>
+      <c r="E389">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="3:5">
+      <c r="C390">
+        <v>70</v>
+      </c>
+      <c r="D390">
+        <v>2</v>
+      </c>
+      <c r="E390">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="3:5">
+      <c r="C391">
+        <v>71</v>
+      </c>
+      <c r="D391">
+        <v>2</v>
+      </c>
+      <c r="E391">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="3:5">
+      <c r="C392">
+        <v>72</v>
+      </c>
+      <c r="D392">
+        <v>2</v>
+      </c>
+      <c r="E392">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="3:5">
+      <c r="C393">
+        <v>73</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+      <c r="E393">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="3:5">
+      <c r="C394">
+        <v>74</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+      <c r="E394">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="3:5">
+      <c r="C395">
+        <v>75</v>
+      </c>
+      <c r="D395">
+        <v>2</v>
+      </c>
+      <c r="E395">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="3:5">
+      <c r="C396">
+        <v>76</v>
+      </c>
+      <c r="D396">
+        <v>2</v>
+      </c>
+      <c r="E396">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="3:5">
+      <c r="C397">
+        <v>77</v>
+      </c>
+      <c r="D397">
+        <v>2</v>
+      </c>
+      <c r="E397">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="3:5">
+      <c r="C398">
+        <v>78</v>
+      </c>
+      <c r="D398">
+        <v>2</v>
+      </c>
+      <c r="E398">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="3:5">
+      <c r="C399">
+        <v>79</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+      <c r="E399">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="3:5">
+      <c r="C400">
+        <v>80</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+      <c r="E400">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="3:5">
+      <c r="C401">
+        <v>81</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+      <c r="E401">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="3:5">
+      <c r="C402">
+        <v>82</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
+      </c>
+      <c r="E402">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="3:5">
+      <c r="C403">
+        <v>83</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404" spans="3:5">
+      <c r="C404">
+        <v>84</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
+      <c r="E404">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405" spans="3:5">
+      <c r="C405">
+        <v>85</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+      <c r="E405">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="3:5">
+      <c r="C406">
+        <v>86</v>
+      </c>
+      <c r="D406">
+        <v>2</v>
+      </c>
+      <c r="E406">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="3:5">
+      <c r="C407">
+        <v>87</v>
+      </c>
+      <c r="D407">
+        <v>2</v>
+      </c>
+      <c r="E407">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" spans="3:5">
+      <c r="C408">
+        <v>88</v>
+      </c>
+      <c r="D408">
+        <v>2</v>
+      </c>
+      <c r="E408">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="409" spans="3:5">
+      <c r="C409">
+        <v>89</v>
+      </c>
+      <c r="D409">
+        <v>2</v>
+      </c>
+      <c r="E409">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="3:5">
+      <c r="C410">
+        <v>90</v>
+      </c>
+      <c r="D410">
+        <v>2</v>
+      </c>
+      <c r="E410">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="411" spans="3:5">
+      <c r="C411">
+        <v>91</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
+      </c>
+      <c r="E411">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="3:5">
+      <c r="C412">
+        <v>92</v>
+      </c>
+      <c r="D412">
+        <v>2</v>
+      </c>
+      <c r="E412">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="413" spans="3:5">
+      <c r="C413">
+        <v>93</v>
+      </c>
+      <c r="D413">
+        <v>2</v>
+      </c>
+      <c r="E413">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="3:5">
+      <c r="C414">
+        <v>94</v>
+      </c>
+      <c r="D414">
+        <v>2</v>
+      </c>
+      <c r="E414">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415" spans="3:5">
+      <c r="C415">
+        <v>95</v>
+      </c>
+      <c r="D415">
+        <v>2</v>
+      </c>
+      <c r="E415">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416" spans="3:5">
+      <c r="C416">
+        <v>96</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+      <c r="E416">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="417" spans="3:5">
+      <c r="C417">
+        <v>97</v>
+      </c>
+      <c r="D417">
+        <v>2</v>
+      </c>
+      <c r="E417">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="418" spans="3:5">
+      <c r="C418">
+        <v>98</v>
+      </c>
+      <c r="D418">
+        <v>2</v>
+      </c>
+      <c r="E418">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="419" spans="3:5">
+      <c r="C419">
+        <v>99</v>
+      </c>
+      <c r="D419">
+        <v>2</v>
+      </c>
+      <c r="E419">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="420" spans="3:5">
+      <c r="C420">
+        <v>100</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
+      </c>
+      <c r="E420">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="421" spans="3:5">
+      <c r="C421">
+        <v>101</v>
+      </c>
+      <c r="D421">
+        <v>2</v>
+      </c>
+      <c r="E421">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="422" spans="3:5">
+      <c r="C422">
+        <v>102</v>
+      </c>
+      <c r="D422">
+        <v>2</v>
+      </c>
+      <c r="E422">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423" spans="3:5">
+      <c r="C423">
+        <v>103</v>
+      </c>
+      <c r="D423">
+        <v>2</v>
+      </c>
+      <c r="E423">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424" spans="3:5">
+      <c r="C424">
+        <v>104</v>
+      </c>
+      <c r="D424">
+        <v>2</v>
+      </c>
+      <c r="E424">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425" spans="3:5">
+      <c r="C425">
+        <v>105</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+      <c r="E425">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="426" spans="3:5">
+      <c r="C426">
+        <v>106</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+      <c r="E426">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="427" spans="3:5">
+      <c r="C427">
+        <v>107</v>
+      </c>
+      <c r="D427">
+        <v>2</v>
+      </c>
+      <c r="E427">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428" spans="3:5">
+      <c r="C428">
+        <v>108</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+      <c r="E428">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="429" spans="3:5">
+      <c r="C429">
+        <v>109</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+      <c r="E429">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="3:5">
+      <c r="C430">
+        <v>110</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+      <c r="E430">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431" spans="3:5">
+      <c r="C431">
+        <v>111</v>
+      </c>
+      <c r="D431">
+        <v>2</v>
+      </c>
+      <c r="E431">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="432" spans="3:5">
+      <c r="C432">
+        <v>112</v>
+      </c>
+      <c r="D432">
+        <v>2</v>
+      </c>
+      <c r="E432">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433" spans="3:5">
+      <c r="C433">
+        <v>113</v>
+      </c>
+      <c r="D433">
+        <v>2</v>
+      </c>
+      <c r="E433">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434" spans="3:5">
+      <c r="C434">
+        <v>114</v>
+      </c>
+      <c r="D434">
+        <v>2</v>
+      </c>
+      <c r="E434">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435" spans="3:5">
+      <c r="C435">
+        <v>115</v>
+      </c>
+      <c r="D435">
+        <v>2</v>
+      </c>
+      <c r="E435">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436" spans="3:5">
+      <c r="C436">
+        <v>116</v>
+      </c>
+      <c r="D436">
+        <v>2</v>
+      </c>
+      <c r="E436">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="3:5">
+      <c r="C437">
+        <v>117</v>
+      </c>
+      <c r="D437">
+        <v>2</v>
+      </c>
+      <c r="E437">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="438" spans="3:5">
+      <c r="C438">
+        <v>118</v>
+      </c>
+      <c r="D438">
+        <v>2</v>
+      </c>
+      <c r="E438">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="439" spans="3:5">
+      <c r="C439">
+        <v>119</v>
+      </c>
+      <c r="D439">
+        <v>2</v>
+      </c>
+      <c r="E439">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="440" spans="3:5">
+      <c r="C440">
+        <v>120</v>
+      </c>
+      <c r="D440">
+        <v>2</v>
+      </c>
+      <c r="E440">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="441" spans="3:5">
+      <c r="C441">
+        <v>121</v>
+      </c>
+      <c r="D441">
+        <v>2</v>
+      </c>
+      <c r="E441">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="442" spans="3:5">
+      <c r="C442">
+        <v>122</v>
+      </c>
+      <c r="D442">
+        <v>2</v>
+      </c>
+      <c r="E442">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="443" spans="3:5">
+      <c r="C443">
+        <v>123</v>
+      </c>
+      <c r="D443">
+        <v>2</v>
+      </c>
+      <c r="E443">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="444" spans="3:5">
+      <c r="C444">
+        <v>124</v>
+      </c>
+      <c r="D444">
+        <v>2</v>
+      </c>
+      <c r="E444">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="445" spans="3:5">
+      <c r="C445">
+        <v>125</v>
+      </c>
+      <c r="D445">
+        <v>2</v>
+      </c>
+      <c r="E445">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="446" spans="3:5">
+      <c r="C446">
+        <v>126</v>
+      </c>
+      <c r="D446">
+        <v>2</v>
+      </c>
+      <c r="E446">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="447" spans="3:5">
+      <c r="C447">
+        <v>127</v>
+      </c>
+      <c r="D447">
+        <v>2</v>
+      </c>
+      <c r="E447">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="448" spans="3:5">
+      <c r="C448">
+        <v>128</v>
+      </c>
+      <c r="D448">
+        <v>2</v>
+      </c>
+      <c r="E448">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="449" spans="3:5">
+      <c r="C449">
+        <v>129</v>
+      </c>
+      <c r="D449">
+        <v>2</v>
+      </c>
+      <c r="E449">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="450" spans="3:5">
+      <c r="C450">
+        <v>130</v>
+      </c>
+      <c r="D450">
+        <v>20</v>
+      </c>
+      <c r="E450">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="451" spans="3:5">
+      <c r="C451">
+        <v>131</v>
+      </c>
+      <c r="D451">
+        <v>20</v>
+      </c>
+      <c r="E451">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="452" spans="3:5">
+      <c r="C452">
+        <v>132</v>
+      </c>
+      <c r="D452">
+        <v>21</v>
+      </c>
+      <c r="E452">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="453" spans="3:5">
+      <c r="C453">
+        <v>133</v>
+      </c>
+      <c r="D453">
+        <v>24</v>
+      </c>
+      <c r="E453">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="454" spans="3:5">
+      <c r="C454">
+        <v>134</v>
+      </c>
+      <c r="D454">
+        <v>29</v>
+      </c>
+      <c r="E454">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="455" spans="3:5">
+      <c r="C455">
+        <v>135</v>
+      </c>
+      <c r="D455">
+        <v>3</v>
+      </c>
+      <c r="E455">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="456" spans="3:5">
+      <c r="C456">
+        <v>136</v>
+      </c>
+      <c r="D456">
+        <v>3</v>
+      </c>
+      <c r="E456">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="457" spans="3:5">
+      <c r="C457">
+        <v>137</v>
+      </c>
+      <c r="D457">
+        <v>3</v>
+      </c>
+      <c r="E457">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="458" spans="3:5">
+      <c r="C458">
+        <v>138</v>
+      </c>
+      <c r="D458">
+        <v>3</v>
+      </c>
+      <c r="E458">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="459" spans="3:5">
+      <c r="C459">
+        <v>139</v>
+      </c>
+      <c r="D459">
+        <v>3</v>
+      </c>
+      <c r="E459">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="460" spans="3:5">
+      <c r="C460">
+        <v>140</v>
+      </c>
+      <c r="D460">
+        <v>3</v>
+      </c>
+      <c r="E460">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="461" spans="3:5">
+      <c r="C461">
+        <v>141</v>
+      </c>
+      <c r="D461">
+        <v>3</v>
+      </c>
+      <c r="E461">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="462" spans="3:5">
+      <c r="C462">
+        <v>142</v>
+      </c>
+      <c r="D462">
+        <v>3</v>
+      </c>
+      <c r="E462">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="463" spans="3:5">
+      <c r="C463">
+        <v>143</v>
+      </c>
+      <c r="D463">
+        <v>3</v>
+      </c>
+      <c r="E463">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="464" spans="3:5">
+      <c r="C464">
+        <v>144</v>
+      </c>
+      <c r="D464">
+        <v>3</v>
+      </c>
+      <c r="E464">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="465" spans="3:5">
+      <c r="C465">
+        <v>145</v>
+      </c>
+      <c r="D465">
+        <v>3</v>
+      </c>
+      <c r="E465">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="466" spans="3:5">
+      <c r="C466">
+        <v>146</v>
+      </c>
+      <c r="D466">
+        <v>3</v>
+      </c>
+      <c r="E466">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="467" spans="3:5">
+      <c r="C467">
+        <v>147</v>
+      </c>
+      <c r="D467">
+        <v>4</v>
+      </c>
+      <c r="E467">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="468" spans="3:5">
+      <c r="C468">
+        <v>148</v>
+      </c>
+      <c r="D468">
+        <v>4</v>
+      </c>
+      <c r="E468">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="469" spans="3:5">
+      <c r="C469">
+        <v>149</v>
+      </c>
+      <c r="D469">
+        <v>4</v>
+      </c>
+      <c r="E469">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="470" spans="3:5">
+      <c r="C470">
+        <v>150</v>
+      </c>
+      <c r="D470">
+        <v>4</v>
+      </c>
+      <c r="E470">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="471" spans="3:5">
+      <c r="C471">
+        <v>151</v>
+      </c>
+      <c r="D471">
+        <v>4</v>
+      </c>
+      <c r="E471">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="472" spans="3:5">
+      <c r="C472">
+        <v>152</v>
+      </c>
+      <c r="D472">
+        <v>4</v>
+      </c>
+      <c r="E472">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="473" spans="3:5">
+      <c r="C473">
+        <v>153</v>
+      </c>
+      <c r="D473">
+        <v>4</v>
+      </c>
+      <c r="E473">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="474" spans="3:5">
+      <c r="C474">
+        <v>154</v>
+      </c>
+      <c r="D474">
+        <v>4</v>
+      </c>
+      <c r="E474">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="475" spans="3:5">
+      <c r="C475">
+        <v>155</v>
+      </c>
+      <c r="D475">
+        <v>4</v>
+      </c>
+      <c r="E475">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="476" spans="3:5">
+      <c r="C476">
+        <v>156</v>
+      </c>
+      <c r="D476">
+        <v>4</v>
+      </c>
+      <c r="E476">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="477" spans="3:5">
+      <c r="C477">
+        <v>157</v>
+      </c>
+      <c r="D477">
+        <v>4</v>
+      </c>
+      <c r="E477">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="478" spans="3:5">
+      <c r="C478">
+        <v>158</v>
+      </c>
+      <c r="D478">
+        <v>4</v>
+      </c>
+      <c r="E478">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="479" spans="3:5">
+      <c r="C479">
+        <v>159</v>
+      </c>
+      <c r="D479">
+        <v>4</v>
+      </c>
+      <c r="E479">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="480" spans="3:5">
+      <c r="C480">
+        <v>160</v>
+      </c>
+      <c r="D480">
+        <v>5</v>
+      </c>
+      <c r="E480">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="481" spans="3:5">
+      <c r="C481">
+        <v>161</v>
+      </c>
+      <c r="D481">
+        <v>5</v>
+      </c>
+      <c r="E481">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="482" spans="3:5">
+      <c r="C482">
+        <v>162</v>
+      </c>
+      <c r="D482">
+        <v>5</v>
+      </c>
+      <c r="E482">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="483" spans="3:5">
+      <c r="C483">
+        <v>163</v>
+      </c>
+      <c r="D483">
+        <v>5</v>
+      </c>
+      <c r="E483">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="484" spans="3:5">
+      <c r="C484">
+        <v>164</v>
+      </c>
+      <c r="D484">
+        <v>6</v>
+      </c>
+      <c r="E484">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="485" spans="3:5">
+      <c r="C485">
+        <v>165</v>
+      </c>
+      <c r="D485">
+        <v>6</v>
+      </c>
+      <c r="E485">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="486" spans="3:5">
+      <c r="C486">
+        <v>166</v>
+      </c>
+      <c r="D486">
+        <v>6</v>
+      </c>
+      <c r="E486">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="487" spans="3:5">
+      <c r="C487">
+        <v>167</v>
+      </c>
+      <c r="D487">
+        <v>7</v>
+      </c>
+      <c r="E487">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="488" spans="3:5">
+      <c r="C488">
+        <v>168</v>
+      </c>
+      <c r="D488">
+        <v>8</v>
+      </c>
+      <c r="E488">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="489" spans="3:5">
+      <c r="C489">
+        <v>169</v>
+      </c>
+      <c r="D489">
+        <v>8</v>
+      </c>
+      <c r="E489">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="490" spans="3:5">
+      <c r="C490">
+        <v>170</v>
+      </c>
+      <c r="D490">
+        <v>8</v>
+      </c>
+      <c r="E490">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="491" spans="3:5">
+      <c r="C491">
+        <v>171</v>
+      </c>
+      <c r="D491">
+        <v>8</v>
+      </c>
+      <c r="E491">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="492" spans="3:5">
+      <c r="C492">
+        <v>172</v>
+      </c>
+      <c r="D492">
+        <v>8</v>
+      </c>
+      <c r="E492">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="493" spans="3:5">
+      <c r="C493">
+        <v>173</v>
+      </c>
+      <c r="D493">
+        <v>8</v>
+      </c>
+      <c r="E493">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="494" spans="3:5">
+      <c r="C494">
+        <v>174</v>
+      </c>
+      <c r="D494">
+        <v>8</v>
+      </c>
+      <c r="E494">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="495" spans="3:5">
+      <c r="C495">
+        <v>175</v>
+      </c>
+      <c r="D495">
+        <v>8</v>
+      </c>
+      <c r="E495">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="496" spans="3:5">
+      <c r="C496">
+        <v>176</v>
+      </c>
+      <c r="D496">
+        <v>9</v>
+      </c>
+      <c r="E496">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="497" spans="3:5">
+      <c r="C497">
+        <v>177</v>
+      </c>
+      <c r="D497">
+        <v>9</v>
+      </c>
+      <c r="E497">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="498" spans="3:5">
+      <c r="C498">
+        <v>178</v>
+      </c>
+      <c r="D498">
+        <v>9</v>
+      </c>
+      <c r="E498">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="499" spans="3:5">
+      <c r="C499">
+        <v>179</v>
+      </c>
+      <c r="D499">
+        <v>9</v>
+      </c>
+      <c r="E499">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="500" spans="3:5">
+      <c r="C500">
+        <v>180</v>
+      </c>
+      <c r="D500">
+        <v>9</v>
+      </c>
+      <c r="E500">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="501" spans="3:5">
+      <c r="C501">
+        <v>181</v>
+      </c>
+      <c r="D501">
+        <v>9</v>
+      </c>
+      <c r="E501">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>